--- a/2025--TSOSI-data-schema-infra-template.xlsx
+++ b/2025--TSOSI-data-schema-infra-template.xlsx
@@ -23,10 +23,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Maxence Larrieu</author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,27 +54,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t xml:space="preserve">Project </t>
   </si>
   <si>
-    <t xml:space="preserve">Transparency to sustain open science infrastructure, centrally collects and publish funding data made for open infrastructure</t>
+    <t xml:space="preserve">Transparency to sustain open science infrastructure</t>
   </si>
   <si>
     <t xml:space="preserve">Purpose </t>
   </si>
   <si>
-    <t xml:space="preserve">Declare the funding your infrastructure has received from institutions</t>
+    <t xml:space="preserve">Declare the funding one open infrastructure has received </t>
   </si>
   <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
-    <t xml:space="preserve">V0.2025-01-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color code</t>
+    <t xml:space="preserve">v1.2025-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSOSI is about transparency, so all financial support is welcome (funders, institutionnal supports, sponsors, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract and payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One contract can include one or more payments. If a payment is part of a contract, indicate it with the dedicated columns (contract start date, contract end date, and an identifier to make it machine-readable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color code</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory field</t>
@@ -86,7 +98,7 @@
     <t xml:space="preserve">At least one of these fields must be filled</t>
   </si>
   <si>
-    <t xml:space="preserve">data schema</t>
+    <t xml:space="preserve">Data schema</t>
   </si>
   <si>
     <t xml:space="preserve">institution_name</t>
@@ -104,7 +116,7 @@
     <t xml:space="preserve">institution_wikidata</t>
   </si>
   <si>
-    <t xml:space="preserve">the Wikidata ID (full URL of the supporting institution)</t>
+    <t xml:space="preserve">the Wikidata identifier (full URL of the supporting institution)</t>
   </si>
   <si>
     <t xml:space="preserve">institution_country</t>
@@ -176,16 +188,25 @@
     <t xml:space="preserve">The date of the transfert invoice</t>
   </si>
   <si>
-    <t xml:space="preserve">date_support_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The start date of the support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_support_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The end date of the support</t>
+    <t xml:space="preserve">date_contract_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The start date of the contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_contract_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The end date of the contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contract_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The identifier of the contract. It can be any kind of identifier attached to it, or you can just give distinct incrementing numbers to distinct contracts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is used to group the transfers made within the same scope or agreement. Ex: Annual transfers for an agreement/contract of several years of support.</t>
   </si>
   <si>
     <t xml:space="preserve">Note about dates</t>
@@ -212,7 +233,7 @@
     <t xml:space="preserve">https://ror.org/02rx3b187</t>
   </si>
   <si>
-    <t xml:space="preserve">arxiv</t>
+    <t xml:space="preserve">arXiv</t>
   </si>
   <si>
     <t xml:space="preserve">EUR</t>
@@ -228,6 +249,51 @@
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KU Leuven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ror.org/05f950310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Bern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ror.org/02k7v4d05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Library Service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.helsinki.fi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FinElib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Johannesburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ror.org/04z6c2n17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
   </si>
 </sst>
 </file>
@@ -334,12 +400,26 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -368,20 +448,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,19 +473,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,6 +501,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,6 +519,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -612,15 +708,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36:B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,207 +756,244 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="6" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="6" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="J25" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="6" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="J28" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="13"/>
+    </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J16" r:id="rId2" display="ISO 3166-1"/>
-    <hyperlink ref="J20" r:id="rId3" display="ISO 4217"/>
-    <hyperlink ref="J23" r:id="rId4" display="SCOSS"/>
+    <hyperlink ref="J21" r:id="rId2" display="ISO 3166-1"/>
+    <hyperlink ref="J25" r:id="rId3" display="ISO 4217"/>
+    <hyperlink ref="J28" r:id="rId4" display="SCOSS"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -877,126 +1011,319 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="A36:B36 A1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="20.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="48.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="F1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="I1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>42</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>53</v>
+      <c r="G2" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="11" t="n">
         <v>45435</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>45292</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>45657</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>57</v>
+      <c r="G3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>2021</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="18" t="n">
+        <v>45717</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="M7" s="11" t="n">
+        <v>44197</v>
+      </c>
+      <c r="N7" s="11" t="n">
+        <v>45291</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="M8" s="11" t="n">
+        <v>44197</v>
+      </c>
+      <c r="N8" s="11" t="n">
+        <v>45291</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>44197</v>
+      </c>
+      <c r="N9" s="11" t="n">
+        <v>45291</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/2025--TSOSI-data-schema-infra-template.xlsx
+++ b/2025--TSOSI-data-schema-infra-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t xml:space="preserve">institution/name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">date_received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scoss</t>
   </si>
   <si>
     <t xml:space="preserve">contract/id</t>
@@ -172,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -210,12 +213,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,11 +300,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,12 +431,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,10 +455,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="20.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="2" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.59"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -525,45 +522,49 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="6" t="b">
+        <v>30</v>
+      </c>
+      <c r="M2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="N2" s="7" t="n">
@@ -575,198 +576,229 @@
       <c r="P2" s="8" t="n">
         <v>45108</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="9" t="n">
+      <c r="S2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="8" t="n">
         <v>44927</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="U2" s="8" t="n">
         <v>46022</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>5000</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="6" t="b">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2021</v>
+      </c>
+      <c r="Q3" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3300</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6" t="b">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>2021</v>
+      </c>
+      <c r="Q4" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="6" t="b">
+        <v>30</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P5" s="8" t="n">
         <v>45717</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="1" t="s">
+      <c r="Q5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>3100</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="6" t="b">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="Q6" s="9" t="b">
+        <v>0</v>
+      </c>
       <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="6" t="b">
+        <v>46</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="8" t="n">
+      <c r="Q7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="8" t="n">
         <v>44197</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="U7" s="8" t="n">
         <v>45291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="6" t="b">
+        <v>46</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="8" t="n">
+      <c r="Q8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="8" t="n">
         <v>44197</v>
       </c>
-      <c r="T8" s="8" t="n">
+      <c r="U8" s="8" t="n">
         <v>45291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="6" t="b">
+        <v>46</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="Q9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="8" t="n">
+      <c r="Q9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="8" t="n">
         <v>44197</v>
       </c>
-      <c r="T9" s="8" t="n">
+      <c r="U9" s="8" t="n">
         <v>45291</v>
       </c>
     </row>

--- a/2025--TSOSI-data-schema-infra-template.xlsx
+++ b/2025--TSOSI-data-schema-infra-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t xml:space="preserve">institution/name</t>
   </si>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">L2167</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">L210</t>
@@ -172,7 +178,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="6">
@@ -263,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,7 +294,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,10 +303,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,13 +435,13 @@
   </sheetPr>
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.15"/>
@@ -563,9 +565,8 @@
       <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="M2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="N2" s="7" t="n">
         <v>45048</v>
@@ -576,14 +577,14 @@
       <c r="P2" s="8" t="n">
         <v>45108</v>
       </c>
-      <c r="Q2" s="9" t="b">
-        <v>0</v>
+      <c r="Q2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="8" t="n">
         <v>44927</v>
@@ -605,23 +606,22 @@
       <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="Q3" s="9" t="b">
-        <v>0</v>
+      <c r="Q3" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3300</v>
@@ -629,23 +629,22 @@
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="M4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="Q4" s="9" t="b">
-        <v>0</v>
+      <c r="Q4" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>2000</v>
@@ -653,36 +652,35 @@
       <c r="L5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="M5" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P5" s="8" t="n">
         <v>45717</v>
       </c>
-      <c r="Q5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>37</v>
+      <c r="Q5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>3100</v>
@@ -690,44 +688,42 @@
       <c r="L6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="M6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="9" t="b">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="Q7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>47</v>
+      <c r="Q7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="T7" s="8" t="n">
         <v>44197</v>
@@ -738,29 +734,28 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="Q8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>47</v>
+      <c r="Q8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="T8" s="8" t="n">
         <v>44197</v>
@@ -771,29 +766,28 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="Q9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>47</v>
+      <c r="Q9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="T9" s="8" t="n">
         <v>44197</v>
@@ -807,8 +801,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/2025--TSOSI-data-schema-infra-template.xlsx
+++ b/2025--TSOSI-data-schema-infra-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t xml:space="preserve">institution/name</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">currency</t>
   </si>
   <si>
-    <t xml:space="preserve">hide_amount</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_invoice</t>
   </si>
   <si>
@@ -70,25 +67,25 @@
     <t xml:space="preserve">date_received</t>
   </si>
   <si>
+    <t xml:space="preserve">contract/id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contract/description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contract/date_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contract/date_end</t>
+  </si>
+  <si>
     <t xml:space="preserve">scoss</t>
   </si>
   <si>
-    <t xml:space="preserve">contract/id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contract/description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contract/date_start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contract/date_end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Université Grenoble Alpes</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ror.org/02rx3b187</t>
+    <t xml:space="preserve">02rx3b187</t>
   </si>
   <si>
     <t xml:space="preserve">Q945876</t>
@@ -100,10 +97,10 @@
     <t xml:space="preserve">https://www.univ-grenoble-alpes.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">COUPERIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ror.org/035c9qf67</t>
+    <t xml:space="preserve">Couperin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">035c9qf67</t>
   </si>
   <si>
     <t xml:space="preserve">Q2994760</t>
@@ -115,25 +112,25 @@
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
+    <t xml:space="preserve">L2167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-year support agreement</t>
+  </si>
+  <si>
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
-    <t xml:space="preserve">L2167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-year support agreement</t>
-  </si>
-  <si>
     <t xml:space="preserve">KU Leuven</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ror.org/05f950310</t>
+    <t xml:space="preserve">05f950310</t>
   </si>
   <si>
     <t xml:space="preserve">University of Bern</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ror.org/02k7v4d05</t>
+    <t xml:space="preserve">02k7v4d05</t>
   </si>
   <si>
     <t xml:space="preserve">L2168</t>
@@ -160,16 +157,16 @@
     <t xml:space="preserve">University of Johannesburg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ror.org/04z6c2n17</t>
+    <t xml:space="preserve">04z6c2n17</t>
   </si>
   <si>
     <t xml:space="preserve">USD</t>
   </si>
   <si>
+    <t xml:space="preserve">L210</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L210</t>
   </si>
 </sst>
 </file>
@@ -178,10 +175,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -219,6 +216,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,20 +293,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -438,10 +449,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.15"/>
@@ -455,12 +466,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="2" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.59"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -524,276 +536,250 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="U1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>3000</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <v>45048</v>
+      </c>
+      <c r="N2" s="8" t="n">
+        <v>45077</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>45108</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7" t="n">
-        <v>45048</v>
-      </c>
-      <c r="O2" s="7" t="n">
-        <v>45077</v>
-      </c>
-      <c r="P2" s="8" t="n">
-        <v>45108</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="9" t="n">
+        <v>44927</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>46022</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="8" t="n">
-        <v>44927</v>
-      </c>
-      <c r="U2" s="8" t="n">
-        <v>46022</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>5000</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>31</v>
+      <c r="T3" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3300</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
+      <c r="T4" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="O5" s="9" t="n">
         <v>45717</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="P5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>40</v>
+      <c r="T5" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>3100</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="T6" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="P7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="9" t="n">
+        <v>44197</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>45291</v>
+      </c>
+      <c r="T7" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="8" t="n">
-        <v>44197</v>
-      </c>
-      <c r="U7" s="8" t="n">
-        <v>45291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="9" t="n">
+        <v>44197</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>45291</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="8" t="n">
-        <v>44197</v>
-      </c>
-      <c r="U8" s="8" t="n">
-        <v>45291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="Q9" s="6" t="s">
+      <c r="R9" s="9" t="n">
+        <v>44197</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>45291</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" s="8" t="n">
-        <v>44197</v>
-      </c>
-      <c r="U9" s="8" t="n">
-        <v>45291</v>
       </c>
     </row>
   </sheetData>
@@ -801,8 +787,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/2025--TSOSI-data-schema-infra-template.xlsx
+++ b/2025--TSOSI-data-schema-infra-template.xlsx
@@ -178,7 +178,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -216,12 +216,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,6 +279,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,11 +291,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,10 +304,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,8 +315,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -449,7 +447,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,83 +464,82 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="2" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="3" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="19.61"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="true" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -557,10 +554,10 @@
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -575,10 +572,10 @@
       <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="9" t="n">
         <v>45048</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="9" t="n">
         <v>45077</v>
       </c>
       <c r="O2" s="9" t="n">
@@ -587,7 +584,7 @@
       <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="R2" s="9" t="n">
@@ -596,7 +593,7 @@
       <c r="S2" s="9" t="n">
         <v>46022</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -604,7 +601,7 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="n">
@@ -613,10 +610,10 @@
       <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -624,7 +621,7 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="1" t="n">
@@ -633,10 +630,10 @@
       <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -644,7 +641,7 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="1" t="n">
@@ -656,17 +653,17 @@
       <c r="O5" s="9" t="n">
         <v>45717</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -689,9 +686,9 @@
       <c r="O6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="T6" s="10" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="T6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -699,7 +696,7 @@
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="1" t="n">
@@ -708,10 +705,10 @@
       <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="R7" s="9" t="n">
@@ -720,7 +717,7 @@
       <c r="S7" s="9" t="n">
         <v>45291</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -728,7 +725,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="1" t="n">
@@ -737,10 +734,10 @@
       <c r="L8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="R8" s="9" t="n">
@@ -749,7 +746,7 @@
       <c r="S8" s="9" t="n">
         <v>45291</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -757,7 +754,7 @@
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K9" s="1" t="n">
@@ -766,10 +763,10 @@
       <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="R9" s="9" t="n">
@@ -778,7 +775,7 @@
       <c r="S9" s="9" t="n">
         <v>45291</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="11" t="s">
         <v>48</v>
       </c>
     </row>
